--- a/res.xlsx
+++ b/res.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q540900\Desktop\DataAnalytics_Thesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C1ACA9-9898-4717-A3F7-7A423E424358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>density</t>
   </si>
@@ -71,13 +77,25 @@
   </si>
   <si>
     <t>[4350]</t>
+  </si>
+  <si>
+    <t>[8135]</t>
+  </si>
+  <si>
+    <t>[13012]</t>
+  </si>
+  <si>
+    <t>[18103]</t>
+  </si>
+  <si>
+    <t>[25040]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,17 +153,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,14 +499,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,13 +524,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -466,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -480,15 +557,15 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="F2">
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2">
@@ -501,30 +578,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6433637761667138</v>
+        <v>0.64336377616671381</v>
       </c>
       <c r="C3">
-        <v>36.71145949305394</v>
+        <v>36.711459493053937</v>
       </c>
       <c r="D3">
-        <v>4.2015503875969</v>
+        <v>4.2015503875968996</v>
       </c>
       <c r="E3">
-        <v>0.8971656572097133</v>
-      </c>
-      <c r="F3">
-        <v>0.6433637761667138</v>
-      </c>
-      <c r="G3">
-        <v>0.7162309298688787</v>
-      </c>
-      <c r="H3">
-        <v>0.01221479458933559</v>
+        <v>0.89716565720971331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.64336377616671381</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.71623092986887871</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.221479458933559E-2</v>
       </c>
       <c r="I3">
         <v>2010</v>
@@ -536,30 +613,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.42423455186491</v>
+        <v>0.42423455186490999</v>
       </c>
       <c r="C4">
-        <v>41.37887417527515</v>
+        <v>41.378874175275151</v>
       </c>
       <c r="D4">
-        <v>8.268138801261829</v>
+        <v>8.2681388012618289</v>
       </c>
       <c r="E4">
-        <v>0.8628568296088857</v>
-      </c>
-      <c r="F4">
-        <v>0.42423455186491</v>
-      </c>
-      <c r="G4">
+        <v>0.86285682960888566</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.42423455186490999</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.499751690774003</v>
       </c>
-      <c r="H4">
-        <v>0.005922923579625844</v>
+      <c r="H4" s="3">
+        <v>5.9229235796258439E-3</v>
       </c>
       <c r="I4">
         <v>2011</v>
@@ -571,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -587,14 +664,14 @@
       <c r="E5">
         <v>0.8493713404261708</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.181011899384911</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.2335850468273396</v>
       </c>
-      <c r="H5">
-        <v>0.007307916305382766</v>
+      <c r="H5" s="3">
+        <v>7.3079163053827662E-3</v>
       </c>
       <c r="I5">
         <v>2012</v>
@@ -606,30 +683,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1730485147988735</v>
+        <v>0.17304851479887351</v>
       </c>
       <c r="C6">
-        <v>47.52402694812985</v>
+        <v>47.524026948129851</v>
       </c>
       <c r="D6">
         <v>11.96422764227642</v>
       </c>
       <c r="E6">
-        <v>0.8278270084033463</v>
-      </c>
-      <c r="F6">
-        <v>0.1730485147988735</v>
-      </c>
-      <c r="G6">
-        <v>0.2481023698210991</v>
-      </c>
-      <c r="H6">
-        <v>0.00549134232396847</v>
+        <v>0.82782700840334633</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.17304851479887351</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.24810236982109909</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.4913423239684699E-3</v>
       </c>
       <c r="I6">
         <v>2013</v>
@@ -641,30 +718,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1511519866029225</v>
+        <v>0.15115198660292251</v>
       </c>
       <c r="C7">
-        <v>51.92395958795323</v>
+        <v>51.923959587953227</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0.8134562373851342</v>
-      </c>
-      <c r="F7">
-        <v>0.1511519866029225</v>
-      </c>
-      <c r="G7">
-        <v>0.2516196337427341</v>
-      </c>
-      <c r="H7">
-        <v>0.003731692192598271</v>
+        <v>0.81345623738513417</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.15115198660292251</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.25161963374273411</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.7316921925982711E-3</v>
       </c>
       <c r="I7">
         <v>2014</v>
@@ -676,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -684,22 +761,22 @@
         <v>0.1139245075954485</v>
       </c>
       <c r="C8">
-        <v>50.75250038795161</v>
+        <v>50.752500387951613</v>
       </c>
       <c r="D8">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0.8023872918602348</v>
-      </c>
-      <c r="F8">
+        <v>0.80238729186023483</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.1139245075954485</v>
       </c>
-      <c r="G8">
-        <v>0.2487704899606051</v>
-      </c>
-      <c r="H8">
-        <v>0.002257527540241465</v>
+      <c r="G8" s="3">
+        <v>0.24877048996060511</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.2575275402414649E-3</v>
       </c>
       <c r="I8">
         <v>2015</v>
@@ -711,30 +788,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09866178172124705</v>
+        <v>9.8661781721247052E-2</v>
       </c>
       <c r="C9">
-        <v>51.70362977793248</v>
+        <v>51.703629777932477</v>
       </c>
       <c r="D9">
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0.7842887788500582</v>
-      </c>
-      <c r="F9">
-        <v>0.09866178172124705</v>
-      </c>
-      <c r="G9">
+        <v>0.78428877885005821</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.8661781721247052E-2</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.2602274838788361</v>
       </c>
-      <c r="H9">
-        <v>0.001168536686878206</v>
+      <c r="H9" s="3">
+        <v>1.168536686878206E-3</v>
       </c>
       <c r="I9">
         <v>2016</v>
@@ -746,30 +823,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09351559216942459</v>
+        <v>9.3515592169424594E-2</v>
       </c>
       <c r="C10">
-        <v>53.2604782459827</v>
+        <v>53.260478245982704</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>0.7669341202139849</v>
-      </c>
-      <c r="F10">
-        <v>0.09351559216942461</v>
-      </c>
-      <c r="G10">
+        <v>0.76693412021398488</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9.3515592169424608E-2</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.2647821309479983</v>
       </c>
-      <c r="H10">
-        <v>0.0006556874368935984</v>
+      <c r="H10" s="3">
+        <v>6.5568743689359841E-4</v>
       </c>
       <c r="I10">
         <v>2017</v>
@@ -779,6 +856,110 @@
       </c>
       <c r="K10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9.3124642871121988E-2</v>
+      </c>
+      <c r="C11">
+        <v>56.991826728962202</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.746</v>
+      </c>
+      <c r="I11">
+        <v>2018</v>
+      </c>
+      <c r="J11">
+        <v>8135</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9.3227376972021339E-2</v>
+      </c>
+      <c r="C12">
+        <v>57.925391278579752</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.755</v>
+      </c>
+      <c r="I12">
+        <v>2019</v>
+      </c>
+      <c r="J12">
+        <v>13012</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9.4103162599327814E-2</v>
+      </c>
+      <c r="C13">
+        <v>58.240484515980967</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+      <c r="J13">
+        <v>18103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9.5353478605324574E-2</v>
+      </c>
+      <c r="C14">
+        <v>58.429198150252809</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.77</v>
+      </c>
+      <c r="I14">
+        <v>2021</v>
+      </c>
+      <c r="J14">
+        <v>25040</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
